--- a/misc analysis/1928 data analysis.xlsx
+++ b/misc analysis/1928 data analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\portfolio-allocation\misc analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C22D41E-3CDF-4CC1-A690-D3F1C03DF796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E003FFB-1D97-4555-88E8-917B33F270E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="3525" windowWidth="15390" windowHeight="9532" xr2:uid="{32ED29AC-9797-4999-AF79-78DD8775F8F1}"/>
+    <workbookView xWindow="6390" yWindow="3225" windowWidth="20505" windowHeight="13080" xr2:uid="{32ED29AC-9797-4999-AF79-78DD8775F8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1621,12 +1621,12 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10409</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10774</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>192500</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11139</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11504</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11870</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12235</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>1.1823899371069182</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12600</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>1.6903725205611995</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12965</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1.6932752781809384</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>13331</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>1.6932752781809384</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13696</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>1.6932752781809384</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14061</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1.6932752781809384</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>150</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>114</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>C26-C27</f>
         <v>36</v>
@@ -2151,7 +2151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>C28/C27</f>
         <v>0.31578947368421051</v>
